--- a/regions/12/ckhovrebis done/shemosavlebi.xlsx
+++ b/regions/12/ckhovrebis done/shemosavlebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -303,62 +303,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,7 +365,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -683,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -694,1977 +691,2273 @@
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:18" ht="30" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="12">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="9">
         <v>2011</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>2012</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>2013</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>2014</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="9">
         <v>2015</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="9">
         <v>2016</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="9">
         <v>2017</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="9">
         <v>2018</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <v>2019</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <v>2020</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="M2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>44.444931900792142</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>45.39336654274441</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>53.154584239276872</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>58.027333841607401</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>55.204271645267895</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>56.597687810649127</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>63.750042171138631</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>69.239292895681729</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>71.756421383471491</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>74.688204780911562</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="5">
         <v>88.77397008755851</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="M3" s="13">
+        <v>93.687552721970746</v>
+      </c>
+      <c r="N3" s="13">
+        <v>107.79347567864129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>34.738021361057577</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>36.800698526135967</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>44.651882850021678</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>47.98051897103808</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>46.223244991943773</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>48.557418447737696</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>55.287035421679896</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <v>60.885235588212517</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>62.812808665330962</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>65.142489078183274</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="5">
         <v>77.226843442746173</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="M4" s="13">
+        <v>83.424695956140994</v>
+      </c>
+      <c r="N4" s="13">
+        <v>96.915068457215014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>11.367177566401686</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>11.382604630294363</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>16.523059699746945</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>16.551051899968467</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>17.491354710879268</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>20.5988026013192</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>22.667036869060524</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>26.119089550904583</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <v>26.807032496901197</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>27.953633058017729</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="6">
         <v>31.271725634080255</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="M5" s="14">
+        <v>34.557970203343714</v>
+      </c>
+      <c r="N5" s="14">
+        <v>41.704658727731065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>3.0526324579830528</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>3.8039761087538082</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>3.9386779205050604</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>4.6956453772991855</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>4.5286894696536431</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>5.6128288693979913</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>5.9688294052505491</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>8.9054772754669216</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>8.7094668613789885</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <v>6.9416580722872414</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="6">
         <v>7.6703471871948254</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="M6" s="14">
+        <v>10.890895435167948</v>
+      </c>
+      <c r="N6" s="14">
+        <v>13.74295763697179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>5.7185882620059374</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>5.2628777538240064</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>5.9488346523569486</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>5.1012001257526345</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>6.7838772528155484</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>5.9019323237602297</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>6.2027982456341411</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>6.2970532795639684</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <v>6.1252263590666454</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <v>5.3595191125488277</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="6">
         <v>8.3406274709325174</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="M7" s="14">
+        <v>7.5368666973643617</v>
+      </c>
+      <c r="N7" s="14">
+        <v>8.3475317850081119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>0.18987185991262134</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>9.688848447769724E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>0.54900251150819113</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>0.77858239999594514</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>0.47339098441007665</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>0.57311026481093585</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>0.51192937761942547</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>0.74838538449605307</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>0.65681144129435221</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>0.44547284416198729</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="6">
         <v>0.21631547373453777</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="M8" s="14">
+        <v>0.99510645637512207</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.62216284573872871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>7.0463300729533005</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>8.1619040076394676</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>10.464286645394647</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>11.418897652593838</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>12.633423040115145</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>12.070810846823491</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>12.477299547650649</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>12.072646331731157</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>13.844756717024483</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <v>16.928221846858978</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="6">
         <v>20.030362716768902</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="M9" s="14">
+        <v>20.151561755163826</v>
+      </c>
+      <c r="N9" s="14">
+        <v>22.497654948788959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>1.5166241189211032</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>0.99800591425899821</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>0.63221585238448685</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>2.2856749241305279</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>1.3055013853294131</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>1.3000870927101322</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>1.6795913800175981</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>1.6484541306686404</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <v>1.7796190579198201</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6">
         <v>2.042525094210307</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="6">
         <v>4.1344339959716789</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="M10" s="14">
+        <v>4.2562794962946571</v>
+      </c>
+      <c r="N10" s="14">
+        <v>3.4364198303248088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>5.8467970228798789</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>7.0944416268875576</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>6.5958055681253969</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>7.1494665912974771</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>3.0070081487406397</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>2.4998464489157395</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>5.7795505964469918</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>5.0941296353811891</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>4.8898957317454803</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <v>5.471459050098221</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="6">
         <v>5.5630309640634579</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="M11" s="14">
+        <v>5.0360159124313544</v>
+      </c>
+      <c r="N11" s="14">
+        <v>6.5636826826515202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>9.7069105397345812</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>8.5926680166084637</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>8.5027013892551544</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>10.046814870569362</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>8.9810266533242142</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>8.0402693629113866</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <v>8.4630067494588079</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <v>8.3540573074692084</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <v>8.94361271814053</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="5">
         <v>9.5457157027282609</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="5">
         <v>11.547126644812327</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="M12" s="13">
+        <v>10.262856765829779</v>
+      </c>
+      <c r="N12" s="13">
+        <v>10.878407221426297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>8.0111239447533347</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>7.4038672133412886</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>7.2928575495477217</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>8.5352196639192144</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>10.661224314478639</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>10.600119131615802</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <v>9.7988308633486305</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="5">
         <v>10.383427386070254</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="5">
         <v>7.8101958447265636</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="5">
         <v>3.6034940671132407</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="5">
         <v>5.9319973878428156</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="M13" s="13">
+        <v>9.9296298203875235</v>
+      </c>
+      <c r="N13" s="13">
+        <v>12.364585190180458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>0.80620522283079088</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>0.52231633287017576</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>1.0548624050605</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>0.42090440505930182</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>9.4105015194088801E-2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>0.70222212311147525</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>0.5978610699717205</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>0.3516337184906006</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="6">
         <v>1.4542564029057823</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="6">
         <v>9.9854756673177072E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="M14" s="14">
+        <v>0.80305345865885425</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0.75256679712931307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>7.2049187219225512</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>6.8815508804711101</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>6.2379951444872219</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>8.114315258859909</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>10.567119299284551</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>9.8978970085043247</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>9.2009697933769186</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <v>10.031793667579651</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <v>6.3559394418207811</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="6">
         <v>3.6034940671132407</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="6">
         <v>5.8321426311696385</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
-      <c r="A16" s="13" t="s">
+      <c r="M15" s="14">
+        <v>9.1265763617286684</v>
+      </c>
+      <c r="N15" s="14">
+        <v>11.612018393051146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>42.749145305810963</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>44.204565739477204</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>51.944740399569405</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>56.515738634957273</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <v>56.884469306422417</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="5">
         <v>59.157537579353516</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="5">
         <v>65.085866285028501</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="5">
         <v>71.268662974282762</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="5">
         <v>70.623004510057541</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="5">
         <v>68.745983145296535</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="5">
         <v>83.158840830588986</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="M16" s="13">
+        <v>93.354325776528512</v>
+      </c>
+      <c r="N16" s="13">
+        <v>109.27965364739546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>52.456055845545528</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>52.797233756085724</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>60.447441788824591</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <v>66.562553505526594</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>65.865495959746568</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>67.197806942264933</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>73.548873034487286</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <v>79.622720281751981</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="7">
         <v>79.566617228198083</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="7">
         <v>78.291698848024794</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="7">
         <v>94.705967475401323</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="M17" s="15">
+        <v>103.61718254235828</v>
+      </c>
+      <c r="N17" s="15">
+        <v>120.15806086882174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="9">
         <v>2011</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>2012</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <v>2013</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>2014</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <v>2015</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <v>2016</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="9">
         <v>2017</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <v>2018</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="8">
         <v>2019</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="8">
         <v>2020</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="13" t="s">
+      <c r="M21" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>575.34486028260449</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>581.48440796851787</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>710.10780063171887</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <v>762.31698467342267</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="5">
         <v>743.09281937904962</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="5">
         <v>771.77410775568842</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="5">
         <v>814.62579027409572</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="5">
         <v>875.3415022288583</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="5">
         <v>932.05108838768342</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="5">
         <v>974.32971122176764</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="5">
         <v>1133.6230399087729</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="A23" s="13" t="s">
+      <c r="M22" s="16">
+        <v>1263.0293093404714</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1448.5190277326481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <v>449.68776397462739</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>471.4132047277833</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>596.51769980856534</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>630.32991736114047</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <v>622.20115252360813</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="5">
         <v>662.13585301926764</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="5">
         <v>706.48180594754092</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="5">
         <v>769.7272943506299</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="5">
         <v>815.88163891760553</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="5">
         <v>849.80302790775988</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="5">
         <v>986.16890671643148</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="A24" s="14" t="s">
+      <c r="M23" s="13">
+        <v>1124.6727345746292</v>
+      </c>
+      <c r="N23" s="13">
+        <v>1302.335970247449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>147.14944784587175</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>145.81000746780623</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>220.73643790113692</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>217.43456302847397</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>235.44736121847657</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>280.88819726443785</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <v>289.64926443594055</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="6">
         <v>330.20445657619956</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="6">
         <v>348.19913442528463</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="6">
         <v>364.66340709234089</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="6">
         <v>399.33269449968464</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="A25" s="14" t="s">
+      <c r="M24" s="14">
+        <v>465.88610727902955</v>
+      </c>
+      <c r="N24" s="14">
+        <v>560.42345171531406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="6">
         <v>39.516685478397598</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>48.728547010106013</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <v>52.617962411977466</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>61.687656284351782</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="6">
         <v>60.959714272140133</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>76.537331474695833</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="6">
         <v>76.272300467038946</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="6">
         <v>112.58540534370979</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="6">
         <v>113.12810632017647</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="6">
         <v>90.555981694989839</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="6">
         <v>97.948557295874807</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="14" t="s">
+      <c r="M25" s="14">
+        <v>146.82334781868678</v>
+      </c>
+      <c r="N25" s="14">
+        <v>184.67662823884439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>74.027796284212727</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>67.416928682990246</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>79.472240292409765</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>67.015512184209499</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>91.316311652636855</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>80.479587230548859</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <v>79.262056159832611</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>79.60901746430828</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <v>79.561156820789037</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="6">
         <v>69.916511242105017</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="6">
         <v>106.50788129695523</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="A27" s="14" t="s">
+      <c r="M26" s="14">
+        <v>101.6067050829361</v>
+      </c>
+      <c r="N26" s="14">
+        <v>112.17338107953047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="6">
         <v>2.4579135132183287</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>1.2411316305969349</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <v>7.3342868083295754</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>10.228396657079022</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>6.3722141564394956</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>7.8150129515867475</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="6">
         <v>6.5416564382533329</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="6">
         <v>9.4612864937526435</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="6">
         <v>8.5313872531677717</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="6">
         <v>5.8113249459226219</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="6">
         <v>2.7622985056586997</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="M27" s="14">
+        <v>13.415321286548771</v>
+      </c>
+      <c r="N27" s="14">
+        <v>8.3605683435571034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>91.215569873697461</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>104.55316010344916</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>139.79549800429689</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>150.0124002005781</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>170.05578853773591</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>164.5992907406731</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="6">
         <v>159.44036518760444</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="6">
         <v>152.62559644878101</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="6">
         <v>179.83088227888828</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="6">
         <v>220.83365843281717</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="6">
         <v>255.7830932993412</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="A29" s="14" t="s">
+      <c r="M28" s="14">
+        <v>271.66909996345385</v>
+      </c>
+      <c r="N28" s="14">
+        <v>302.3214630339782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>19.632877236703298</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>12.784354243819156</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>8.4459584227078679</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>30.027380214692489</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>17.57307317378303</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>17.7281722062197</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="6">
         <v>21.462549806811477</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="6">
         <v>20.840194270453733</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="6">
         <v>23.115643838834185</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="6">
         <v>26.645343679672429</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="6">
         <v>52.795764684094564</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="14" t="s">
+      <c r="M29" s="14">
+        <v>57.380149191412983</v>
+      </c>
+      <c r="N29" s="14">
+        <v>46.178300496990026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="6">
         <v>75.687473742526237</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>90.879075589014704</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>88.11531596770682</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>93.924008791755526</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>40.476689512395701</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>34.088261151105911</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="6">
         <v>73.853613452059307</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="6">
         <v>64.401337753424968</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="6">
         <v>63.51532798046528</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="6">
         <v>71.376800819912035</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="6">
         <v>71.038617134822431</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="13" t="s">
+      <c r="M30" s="14">
+        <v>67.892003952560927</v>
+      </c>
+      <c r="N30" s="14">
+        <v>88.202177339234666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="5">
         <v>125.65709630797737</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>110.0712032407348</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>113.59010082315298</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <v>131.98706731228276</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="5">
         <v>120.89166685544257</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="5">
         <v>109.63825473642019</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="5">
         <v>108.14398432655581</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="5">
         <v>105.61420787822836</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="5">
         <v>116.16944947007788</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="5">
         <v>124.52668331400754</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="5">
         <v>147.45413319234086</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="M31" s="13">
+        <v>138.35657476584265</v>
+      </c>
+      <c r="N31" s="13">
+        <v>146.18305748519913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="5">
         <v>103.70493978906481</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <v>94.842785876506426</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="5">
         <v>97.427439400478164</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="5">
         <v>112.12893109107154</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="5">
         <v>143.50844595478878</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="5">
         <v>144.54472967652777</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="5">
         <v>125.21372635940652</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="5">
         <v>131.27004257684817</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="5">
         <v>101.447388223225</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="5">
         <v>47.008645395867362</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="5">
         <v>75.750232921933005</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="M32" s="13">
+        <v>133.86424481882645</v>
+      </c>
+      <c r="N32" s="13">
+        <v>166.15418331432966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
+      <c r="A33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="6">
         <v>10.436421239750404</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <v>6.690819093695251</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="6">
         <v>14.092218632632981</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="6">
         <v>5.5295074865304157</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="6">
         <v>1.2667273559486956</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <v>9.5756005850241159</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="6">
         <v>7.6397290105687539</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="6">
         <v>4.445446718261886</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="6">
         <v>18.889476885692446</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="6">
         <v>0</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="6">
         <v>1.2751221185393646</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
-      <c r="A34" s="14" t="s">
+      <c r="M33" s="14">
+        <v>10.826198633487303</v>
+      </c>
+      <c r="N33" s="14">
+        <v>10.112924909588241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="A34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="6">
         <v>93.268518549314493</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>88.151966782811158</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="6">
         <v>83.335220767845186</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>106.59942360454107</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="6">
         <v>142.24171859884009</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <v>134.96912909150365</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="6">
         <v>117.57399734883788</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="6">
         <v>126.82459585858631</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="6">
         <v>82.557911337532545</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="6">
         <v>47.008645395867362</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="6">
         <v>74.475110803393648</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="13" t="s">
+      <c r="M34" s="14">
+        <v>123.03804618533913</v>
+      </c>
+      <c r="N34" s="14">
+        <v>156.0412584047414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="5">
         <v>553.39270376369279</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>566.25599060428908</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <v>693.94513920904365</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <v>742.45884845221178</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="5">
         <v>765.70959847839708</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="5">
         <v>806.68058269579569</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="5">
         <v>831.69553230694703</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="5">
         <v>900.99733692747839</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="5">
         <v>917.32902714083082</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="5">
         <v>896.81167330362746</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="5">
         <v>1061.9191396383644</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="A36" s="15" t="s">
+      <c r="M35" s="13">
+        <v>1258.5369793934553</v>
+      </c>
+      <c r="N35" s="13">
+        <v>1468.4901535617787</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
+      <c r="A36" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="7">
         <v>679.04980007167001</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>676.32719384502457</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="7">
         <v>807.53524003219695</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="7">
         <v>874.44591576449386</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="7">
         <v>886.60126533383868</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="7">
         <v>916.31883743221624</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="7">
         <v>939.83951663350274</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="7">
         <v>1006.6115448057064</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="7">
         <v>1033.4984766109089</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="7">
         <v>1021.3383566176348</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="7">
         <v>1209.3732728307059</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="21" t="s">
+      <c r="M36" s="15">
+        <v>1396.8935541592978</v>
+      </c>
+      <c r="N36" s="15">
+        <v>1614.6732110469777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="12">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="9">
         <v>2011</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="9">
         <v>2012</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="9">
         <v>2013</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="9">
         <v>2014</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="9">
         <v>2015</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="9">
         <v>2016</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="9">
         <v>2017</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="9">
         <v>2018</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="8">
         <v>2019</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="8">
         <v>2020</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
-      <c r="A41" s="13" t="s">
+      <c r="M40" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="5">
         <v>167.11133967811767</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <v>171.31317735295488</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <v>201.23792956438251</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="5">
         <v>219.92879877507198</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="5">
         <v>209.97562510561863</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="5">
         <v>216.12152104845788</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="5">
         <v>245.03195282868731</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="5">
         <v>267.07435365886704</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="5">
         <v>278.90508400159939</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="5">
         <v>292.7525625830753</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L41" s="5">
         <v>349.39239973396133</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
-      <c r="A42" s="13" t="s">
+      <c r="M41" s="13">
+        <v>374.0186306517827</v>
+      </c>
+      <c r="N41" s="13">
+        <v>436.44263819625326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="5">
         <v>130.61370642599491</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="5">
         <v>138.88471099370898</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="5">
         <v>169.04755411951962</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="5">
         <v>181.85046948234304</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="5">
         <v>175.8152851641785</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="5">
         <v>185.41929077069057</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="5">
         <v>212.50323598399387</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="5">
         <v>234.8505344586477</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="5">
         <v>244.14277272216142</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="5">
         <v>255.33657779858876</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="5">
         <v>303.94576391848852</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
-      <c r="A43" s="14" t="s">
+      <c r="M42" s="13">
+        <v>333.04734340381447</v>
+      </c>
+      <c r="N42" s="13">
+        <v>392.3972939191392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
+      <c r="A43" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="6">
         <v>42.740177343967865</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="6">
         <v>42.957601832240982</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="6">
         <v>62.554648326810018</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="6">
         <v>62.72997089199206</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="6">
         <v>66.530325098054433</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="6">
         <v>78.657710627118604</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="6">
         <v>87.12383740791104</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="6">
         <v>100.74826977906601</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="6">
         <v>104.19440527038337</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="6">
         <v>109.56880989771969</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="6">
         <v>123.07778115968932</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
-      <c r="A44" s="14" t="s">
+      <c r="M43" s="14">
+        <v>137.96202716402681</v>
+      </c>
+      <c r="N43" s="14">
+        <v>168.85707753286513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
+      <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="6">
         <v>11.477787855252876</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="6">
         <v>14.356089521399602</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="6">
         <v>14.911439931040064</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="6">
         <v>17.79691705502151</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="6">
         <v>17.22537720287572</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="6">
         <v>21.432909356603581</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="6">
         <v>22.942007180851277</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="6">
         <v>34.350792561565726</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="6">
         <v>33.85222590185608</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="6">
         <v>27.20895749467735</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="6">
         <v>30.188590280274411</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
-      <c r="A45" s="14" t="s">
+      <c r="M44" s="14">
+        <v>43.47853774472658</v>
+      </c>
+      <c r="N44" s="14">
+        <v>55.643559593354766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
+      <c r="A45" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="6">
         <v>21.501685448962029</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="6">
         <v>19.861939721496221</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="6">
         <v>22.521691889682472</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="6">
         <v>19.334005919182612</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="6">
         <v>25.803236313902804</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="6">
         <v>22.536867498960312</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="6">
         <v>23.841298222986616</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="6">
         <v>24.289407997404371</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="6">
         <v>23.807719772906619</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="6">
         <v>21.00750659376726</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="6">
         <v>32.826647771659417</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="A46" s="14" t="s">
+      <c r="M45" s="14">
+        <v>30.088613478022605</v>
+      </c>
+      <c r="N45" s="14">
+        <v>33.798138261515433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="6">
         <v>0.71391133972259546</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="6">
         <v>0.36565417788868093</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="6">
         <v>2.0784684956658683</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="6">
         <v>2.9508971142103668</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="6">
         <v>1.8005955863270702</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="6">
         <v>2.188454457252913</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="6">
         <v>1.9676701510521035</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="6">
         <v>2.8867213180984361</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="6">
         <v>2.5529150795918696</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="6">
         <v>1.7461032444432663</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="6">
         <v>0.85136422752248941</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
-      <c r="A47" s="14" t="s">
+      <c r="M46" s="14">
+        <v>3.9726553138887666</v>
+      </c>
+      <c r="N46" s="14">
+        <v>2.5190614930297048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="6">
         <v>26.493946732415797</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="6">
         <v>30.802776160738961</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="6">
         <v>39.616740663572251</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="6">
         <v>43.27864607609699</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="6">
         <v>48.052638337803209</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="6">
         <v>46.093084389445075</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="6">
         <v>47.958196890001027</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="6">
         <v>46.567405315028594</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="6">
         <v>53.812229772551859</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="6">
         <v>66.352917976538905</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="6">
         <v>78.834555785337969</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="14" t="s">
+      <c r="M47" s="14">
+        <v>80.448889037889089</v>
+      </c>
+      <c r="N47" s="14">
+        <v>91.090261421304348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
+      <c r="A48" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="6">
         <v>5.702451943604693</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="6">
         <v>3.7664438046857622</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="6">
         <v>2.3935058658144106</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="6">
         <v>8.6629129269745881</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="6">
         <v>4.9656206175902406</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="6">
         <v>4.9644572215035634</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="6">
         <v>6.4557377812412389</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="6">
         <v>6.3585256733907869</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="6">
         <v>6.9170785453119548</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="6">
         <v>8.0060092115525983</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="6">
         <v>16.272110101299447</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
-      <c r="A49" s="14" t="s">
+      <c r="M48" s="14">
+        <v>16.991881873567852</v>
+      </c>
+      <c r="N48" s="14">
+        <v>13.913644840325508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
+      <c r="A49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="6">
         <v>21.983745762069045</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="6">
         <v>26.774205775258512</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="6">
         <v>24.971058946934544</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="6">
         <v>27.097119498864895</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="6">
         <v>11.43749200762489</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="6">
         <v>9.5458072198066226</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="6">
         <v>22.214488349950479</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="6">
         <v>19.649411814093817</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="6">
         <v>19.00619837955966</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="6">
         <v>21.446273379889689</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="6">
         <v>21.894714592705448</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="13" t="s">
+      <c r="M49" s="14">
+        <v>20.104738791692736</v>
+      </c>
+      <c r="N49" s="14">
+        <v>26.575550776744354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
+      <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="5">
         <v>36.497633252122831</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="5">
         <v>32.428466359245974</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="5">
         <v>32.190375444862745</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="5">
         <v>38.078329292729109</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="5">
         <v>34.160339941440462</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="5">
         <v>30.702230277767146</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="5">
         <v>32.528716844693733</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="5">
         <v>32.223819200219239</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="5">
         <v>34.762311279437995</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="5">
         <v>37.415984784486525</v>
       </c>
-      <c r="L50" s="16">
+      <c r="L50" s="5">
         <v>45.446635815472767</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="13" t="s">
+      <c r="M50" s="13">
+        <v>40.971287247968291</v>
+      </c>
+      <c r="N50" s="13">
+        <v>44.045344277113955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
+      <c r="A51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="5">
         <v>30.12153686551865</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <v>27.941968477321481</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="5">
         <v>27.610027900369207</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="5">
         <v>32.349247909459493</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="5">
         <v>40.551159776342509</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="5">
         <v>40.477163619900026</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="5">
         <v>37.663138409206212</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="5">
         <v>40.05163891659911</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="5">
         <v>30.356911425409507</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="5">
         <v>14.124480906922587</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L51" s="5">
         <v>23.346875221529167</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
-      <c r="A52" s="14" t="s">
+      <c r="M51" s="13">
+        <v>39.640981543426591</v>
+      </c>
+      <c r="N51" s="13">
+        <v>50.062697641300339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
+      <c r="A52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="6">
         <v>3.0313025373394176</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="6">
         <v>1.9712058695420926</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="6">
         <v>3.9936033628652443</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="6">
         <v>1.5952654391550509</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="6">
         <v>0.35793895657069752</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="6">
         <v>2.6814755024705108</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="6">
         <v>2.2979602915736015</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="6">
         <v>1.3563447020181545</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="6">
         <v>5.6524488873929197</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="6">
         <v>0</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="6">
         <v>0.39300363636414271</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
-      <c r="A53" s="14" t="s">
+      <c r="M52" s="14">
+        <v>3.2059430118652856</v>
+      </c>
+      <c r="N52" s="14">
+        <v>3.0470511901593964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
+      <c r="A53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="6">
         <v>27.09023432817926</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="6">
         <v>25.970762607779378</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="6">
         <v>23.616424537503963</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="6">
         <v>30.753982470304432</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="6">
         <v>40.19322081977181</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="6">
         <v>37.795688117429506</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="6">
         <v>35.365178117632638</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="6">
         <v>38.695294214580954</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="6">
         <v>24.704462538016585</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="6">
         <v>14.124480906922587</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="6">
         <v>22.953871585165025</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
-      <c r="A54" s="13" t="s">
+      <c r="M53" s="14">
+        <v>36.435038531561304</v>
+      </c>
+      <c r="N53" s="14">
+        <v>47.015646451140945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
+      <c r="A54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="5">
         <v>160.73524329151374</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="5">
         <v>166.82667947103025</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="5">
         <v>196.65758201988888</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="5">
         <v>214.19971739180247</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="5">
         <v>216.36644494052106</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="5">
         <v>225.89645439059066</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="5">
         <v>250.16637439319993</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="5">
         <v>274.90217337524683</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="5">
         <v>274.49968414757097</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="5">
         <v>269.46105870551145</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L54" s="5">
         <v>327.29263914001757</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="15" t="s">
+      <c r="M54" s="13">
+        <v>372.68832494724103</v>
+      </c>
+      <c r="N54" s="13">
+        <v>442.45999156043956</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="7">
         <v>197.23287654363651</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>199.25514583027643</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="7">
         <v>228.84795746475172</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="7">
         <v>252.27804668453138</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="7">
         <v>250.52678488196122</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="7">
         <v>256.59868466835792</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="7">
         <v>282.69509123789362</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="7">
         <v>307.12599257546606</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="7">
         <v>309.26199542700903</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="7">
         <v>306.8770434899979</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L55" s="7">
         <v>372.73927495549049</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="22" t="s">
+      <c r="M55" s="15">
+        <v>413.65961219520926</v>
+      </c>
+      <c r="N55" s="15">
+        <v>486.50533583755362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="1:12" ht="30" customHeight="1">
-      <c r="A57" s="23" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
